--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>№Поз</t>
   </si>
@@ -152,10 +152,10 @@
     <t>Формокомплект бутылки «Калина 0,5»  тип XХI-В-28-2-500-28 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
   </si>
   <si>
-    <t>Начальник УРФ                                            Е.А. Козинов</t>
-  </si>
-  <si>
     <t>стоит</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                            А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -904,21 +904,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -932,37 +949,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1273,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" activeCellId="1" sqref="E20:F30 H20:H30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1294,29 +1292,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1751,15 +1749,15 @@
       <c r="B20" s="79"/>
       <c r="C20" s="81"/>
       <c r="D20" s="79"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103">
+      <c r="E20" s="92"/>
+      <c r="F20" s="92">
         <v>8066500</v>
       </c>
       <c r="G20" s="38">
         <f>F20/A$20</f>
         <v>0.48014880952380951</v>
       </c>
-      <c r="H20" s="109">
+      <c r="H20" s="98">
         <f>A20-F20</f>
         <v>8733500</v>
       </c>
@@ -1777,20 +1775,20 @@
         <v>43490</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="80"/>
-      <c r="E21" s="104">
+      <c r="E21" s="93">
         <v>963900</v>
       </c>
-      <c r="F21" s="104">
+      <c r="F21" s="93">
         <v>1032409</v>
       </c>
       <c r="G21" s="38">
         <f>F21/A$20</f>
         <v>6.145291666666667E-2</v>
       </c>
-      <c r="H21" s="105">
+      <c r="H21" s="94">
         <f>H20-F21</f>
         <v>7701091</v>
       </c>
@@ -1813,17 +1811,17 @@
       <c r="D22" s="10">
         <v>43499</v>
       </c>
-      <c r="E22" s="105">
+      <c r="E22" s="94">
         <v>142884</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="94">
         <v>155948</v>
       </c>
       <c r="G22" s="38">
         <f>F22/A$20</f>
         <v>9.2826190476190482E-3</v>
       </c>
-      <c r="H22" s="105">
+      <c r="H22" s="94">
         <f>H21-F22</f>
         <v>7545143</v>
       </c>
@@ -1846,17 +1844,17 @@
       <c r="D23" s="10">
         <v>43560</v>
       </c>
-      <c r="E23" s="106">
+      <c r="E23" s="95">
         <v>1263276</v>
       </c>
-      <c r="F23" s="106">
+      <c r="F23" s="95">
         <v>1404557</v>
       </c>
       <c r="G23" s="38">
         <f>F23/A$20</f>
         <v>8.3604583333333329E-2</v>
       </c>
-      <c r="H23" s="105">
+      <c r="H23" s="94">
         <f>H22-F23</f>
         <v>6140586</v>
       </c>
@@ -1870,14 +1868,33 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="27"/>
+      <c r="B24" s="10">
+        <v>43731</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43739</v>
+      </c>
+      <c r="E24" s="94">
+        <v>1188432</v>
+      </c>
+      <c r="F24" s="94">
+        <v>1243584</v>
+      </c>
+      <c r="G24" s="25">
+        <f>F24/A$20</f>
+        <v>7.402285714285714E-2</v>
+      </c>
+      <c r="H24" s="94">
+        <f>H23-F24</f>
+        <v>4897002</v>
+      </c>
+      <c r="I24" s="27">
+        <f t="shared" ref="I24" si="3">I23-G24</f>
+        <v>0.29148821428571425</v>
+      </c>
       <c r="J24" s="72"/>
       <c r="K24" s="73"/>
       <c r="L24" s="1"/>
@@ -1887,10 +1904,10 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="105"/>
+      <c r="H25" s="94"/>
       <c r="I25" s="27"/>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
@@ -1901,10 +1918,10 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="105"/>
+      <c r="H26" s="94"/>
       <c r="I26" s="27"/>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -1915,10 +1932,10 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="105"/>
+      <c r="H27" s="94"/>
       <c r="I27" s="27"/>
       <c r="J27" s="72"/>
       <c r="K27" s="72"/>
@@ -1929,11 +1946,11 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="105"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="94"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="100"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="89"/>
       <c r="J28" s="72"/>
       <c r="K28" s="72"/>
       <c r="L28" s="1"/>
@@ -1943,11 +1960,11 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="105"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="94"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="100"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="89"/>
       <c r="J29" s="72"/>
       <c r="K29" s="72"/>
       <c r="L29" s="1"/>
@@ -1956,12 +1973,12 @@
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="102"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1975,29 +1992,29 @@
       <c r="D31" s="19"/>
       <c r="E31" s="56">
         <f>SUM(E20:E30)</f>
-        <v>2370060</v>
+        <v>3558492</v>
       </c>
       <c r="F31" s="55">
         <f>SUM(F20:F30)</f>
-        <v>10659414</v>
+        <v>11902998</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.63448892857142858</v>
+        <v>0.70851178571428575</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>6140586</v>
+        <v>4897002</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.36551107142857142</v>
+        <v>0.29148821428571425</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:11">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2009,13 +2026,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A35" s="89" t="s">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A35" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2023,11 +2040,11 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="99" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="99"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2041,32 +2058,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="97">
+    <row r="37" spans="1:11">
+      <c r="A37" s="102">
         <f>A20-F31</f>
-        <v>6140586</v>
-      </c>
-      <c r="B37" s="98"/>
+        <v>4897002</v>
+      </c>
+      <c r="B37" s="103"/>
       <c r="C37" s="78">
         <f>1-G31</f>
-        <v>0.36551107142857142</v>
+        <v>0.29148821428571425</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>45.688883928571428</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="94"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>36.436026785714283</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2074,7 +2089,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:11">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2089,7 +2104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:11" ht="15.6">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2101,7 +2116,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:11">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
@@ -2110,10 +2125,10 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="96"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="61"/>
       <c r="B42" s="62"/>
       <c r="C42" s="62"/>
@@ -2123,7 +2138,7 @@
       <c r="G42" s="63"/>
       <c r="H42" s="62"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:11">
       <c r="A43" s="61"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
@@ -2133,7 +2148,7 @@
       <c r="G43" s="63"/>
       <c r="H43" s="62"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:11">
       <c r="A44" s="61"/>
       <c r="B44" s="62"/>
       <c r="C44" s="62"/>
@@ -2143,7 +2158,7 @@
       <c r="G44" s="63"/>
       <c r="H44" s="62"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:11">
       <c r="A45" s="61"/>
       <c r="B45" s="62"/>
       <c r="C45" s="62"/>
@@ -2153,7 +2168,7 @@
       <c r="G45" s="63"/>
       <c r="H45" s="62"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:11">
       <c r="A46" s="61"/>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -2163,7 +2178,7 @@
       <c r="G46" s="63"/>
       <c r="H46" s="62"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:11">
       <c r="A47" s="61"/>
       <c r="B47" s="62"/>
       <c r="C47" s="64"/>
@@ -2173,7 +2188,7 @@
       <c r="G47" s="64"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:11">
       <c r="A48" s="61"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -2205,9 +2220,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="92"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="109"/>
       <c r="E51" s="66"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2224,8 +2239,8 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="96"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="101"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="61"/>
@@ -2236,8 +2251,8 @@
       <c r="F53" s="63"/>
       <c r="G53" s="63"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="90"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="61"/>
@@ -2248,8 +2263,8 @@
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2262,18 +2277,23 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="95"/>
-      <c r="C60" s="96"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="101"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="95"/>
-      <c r="C67" s="96"/>
+      <c r="B67" s="100"/>
+      <c r="C67" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2281,12 +2301,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G37:L37"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>№Поз</t>
   </si>
@@ -938,6 +938,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,20 +961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1292,29 +1292,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="32"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1901,14 +1901,33 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="27"/>
+      <c r="B25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="10">
+        <v>43742</v>
+      </c>
+      <c r="D25" s="10">
+        <v>43752</v>
+      </c>
+      <c r="E25" s="94">
+        <v>700812</v>
+      </c>
+      <c r="F25" s="94">
+        <v>721644</v>
+      </c>
+      <c r="G25" s="25">
+        <f>F25/A$20</f>
+        <v>4.2955E-2</v>
+      </c>
+      <c r="H25" s="94">
+        <f>H24-F25</f>
+        <v>4175358</v>
+      </c>
+      <c r="I25" s="27">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.24853321428571426</v>
+      </c>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
       <c r="L25" s="1"/>
@@ -1992,23 +2011,23 @@
       <c r="D31" s="19"/>
       <c r="E31" s="56">
         <f>SUM(E20:E30)</f>
-        <v>3558492</v>
+        <v>4259304</v>
       </c>
       <c r="F31" s="55">
         <f>SUM(F20:F30)</f>
-        <v>11902998</v>
+        <v>12624642</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.70851178571428575</v>
+        <v>0.75146678571428571</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>4897002</v>
+        <v>4175358</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.29148821428571425</v>
+        <v>0.24853321428571429</v>
       </c>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
@@ -2027,12 +2046,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2041,10 +2060,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="104"/>
+      <c r="B36" s="110"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2059,18 +2078,18 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="102">
+      <c r="A37" s="108">
         <f>A20-F31</f>
-        <v>4897002</v>
-      </c>
-      <c r="B37" s="103"/>
+        <v>4175358</v>
+      </c>
+      <c r="B37" s="109"/>
       <c r="C37" s="78">
         <f>1-G31</f>
-        <v>0.29148821428571425</v>
+        <v>0.24853321428571429</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>36.436026785714283</v>
+        <v>31.066651785714285</v>
       </c>
       <c r="E37" s="88" t="s">
         <v>43</v>
@@ -2125,8 +2144,8 @@
       <c r="F41" s="60"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="61"/>
@@ -2220,9 +2239,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="108"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="109"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="66"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2239,8 +2258,8 @@
       <c r="F52" s="60"/>
       <c r="G52" s="60"/>
       <c r="H52" s="60"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="101"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="107"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="61"/>
@@ -2251,8 +2270,8 @@
       <c r="F53" s="63"/>
       <c r="G53" s="63"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="61"/>
@@ -2263,8 +2282,8 @@
       <c r="F54" s="64"/>
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2277,23 +2296,18 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="100"/>
-      <c r="C60" s="101"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="107"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="100"/>
-      <c r="C67" s="101"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A36:B36"/>
@@ -2301,6 +2315,11 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Начальник УРФ                                            А.Д. Гавриленко</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 320 гр.)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -961,6 +964,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1271,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1737,7 +1746,9 @@
       <c r="I19" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="71"/>
+      <c r="J19" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="K19" s="71"/>
       <c r="L19" s="71"/>
     </row>
@@ -1754,7 +1765,7 @@
         <v>8066500</v>
       </c>
       <c r="G20" s="38">
-        <f>F20/A$20</f>
+        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
         <v>0.48014880952380951</v>
       </c>
       <c r="H20" s="98">
@@ -1765,7 +1776,7 @@
         <f>1-G20</f>
         <v>0.51985119047619044</v>
       </c>
-      <c r="J20" s="72"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="64"/>
       <c r="L20" s="64"/>
     </row>
@@ -1785,7 +1796,7 @@
         <v>1032409</v>
       </c>
       <c r="G21" s="38">
-        <f>F21/A$20</f>
+        <f t="shared" si="2"/>
         <v>6.145291666666667E-2</v>
       </c>
       <c r="H21" s="94">
@@ -1796,7 +1807,7 @@
         <f>I20-G21</f>
         <v>0.45839827380952375</v>
       </c>
-      <c r="J21" s="1"/>
+      <c r="J21" s="111"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1818,7 +1829,7 @@
         <v>155948</v>
       </c>
       <c r="G22" s="38">
-        <f>F22/A$20</f>
+        <f t="shared" si="2"/>
         <v>9.2826190476190482E-3</v>
       </c>
       <c r="H22" s="94">
@@ -1826,10 +1837,10 @@
         <v>7545143</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:I23" si="2">I21-G22</f>
+        <f t="shared" ref="I22:J23" si="3">I21-G22</f>
         <v>0.44911565476190468</v>
       </c>
-      <c r="J22" s="72"/>
+      <c r="J22" s="111"/>
       <c r="K22" s="64"/>
       <c r="L22" s="64"/>
     </row>
@@ -1851,7 +1862,7 @@
         <v>1404557</v>
       </c>
       <c r="G23" s="38">
-        <f>F23/A$20</f>
+        <f t="shared" si="2"/>
         <v>8.3604583333333329E-2</v>
       </c>
       <c r="H23" s="94">
@@ -1859,10 +1870,10 @@
         <v>6140586</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36551107142857137</v>
       </c>
-      <c r="J23" s="72"/>
+      <c r="J23" s="111"/>
       <c r="K23" s="72"/>
       <c r="L23" s="1"/>
     </row>
@@ -1884,7 +1895,7 @@
         <v>1243584</v>
       </c>
       <c r="G24" s="25">
-        <f>F24/A$20</f>
+        <f t="shared" si="2"/>
         <v>7.402285714285714E-2</v>
       </c>
       <c r="H24" s="94">
@@ -1892,10 +1903,10 @@
         <v>4897002</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24" si="3">I23-G24</f>
+        <f t="shared" ref="I24:J24" si="4">I23-G24</f>
         <v>0.29148821428571425</v>
       </c>
-      <c r="J24" s="72"/>
+      <c r="J24" s="111"/>
       <c r="K24" s="73"/>
       <c r="L24" s="1"/>
     </row>
@@ -1917,7 +1928,7 @@
         <v>721644</v>
       </c>
       <c r="G25" s="25">
-        <f>F25/A$20</f>
+        <f t="shared" si="2"/>
         <v>4.2955E-2</v>
       </c>
       <c r="H25" s="94">
@@ -1925,24 +1936,45 @@
         <v>4175358</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <f t="shared" ref="I25:J25" si="5">I24-G25</f>
         <v>0.24853321428571426</v>
       </c>
-      <c r="J25" s="72"/>
+      <c r="J25" s="111"/>
       <c r="K25" s="72"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="72"/>
+      <c r="B26" s="10">
+        <v>43859</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43864</v>
+      </c>
+      <c r="E26" s="94">
+        <v>521640</v>
+      </c>
+      <c r="F26" s="94">
+        <v>555696</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="2"/>
+        <v>3.3077142857142861E-2</v>
+      </c>
+      <c r="H26" s="94">
+        <f>H25-F26</f>
+        <v>3619662</v>
+      </c>
+      <c r="I26" s="27">
+        <f t="shared" ref="I26:J26" si="6">I25-G26</f>
+        <v>0.2154560714285714</v>
+      </c>
+      <c r="J26" s="111">
+        <v>332</v>
+      </c>
       <c r="K26" s="72"/>
       <c r="L26" s="1"/>
     </row>
@@ -1956,7 +1988,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="94"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="72"/>
+      <c r="J27" s="111"/>
       <c r="K27" s="72"/>
       <c r="L27" s="1"/>
     </row>
@@ -1970,7 +2002,7 @@
       <c r="G28" s="26"/>
       <c r="H28" s="94"/>
       <c r="I28" s="89"/>
-      <c r="J28" s="72"/>
+      <c r="J28" s="111"/>
       <c r="K28" s="72"/>
       <c r="L28" s="1"/>
     </row>
@@ -1984,7 +2016,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="94"/>
       <c r="I29" s="89"/>
-      <c r="J29" s="72"/>
+      <c r="J29" s="111"/>
       <c r="K29" s="72"/>
       <c r="L29" s="1"/>
     </row>
@@ -1998,7 +2030,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="99"/>
       <c r="I30" s="91"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="111"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2011,25 +2043,25 @@
       <c r="D31" s="19"/>
       <c r="E31" s="56">
         <f>SUM(E20:E30)</f>
-        <v>4259304</v>
+        <v>4780944</v>
       </c>
       <c r="F31" s="55">
         <f>SUM(F20:F30)</f>
-        <v>12624642</v>
+        <v>13180338</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.75146678571428571</v>
+        <v>0.78454392857142863</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>4175358</v>
+        <v>3619662</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.24853321428571429</v>
-      </c>
-      <c r="J31" s="74"/>
+        <v>0.21545607142857137</v>
+      </c>
+      <c r="J31" s="112"/>
       <c r="K31" s="74"/>
       <c r="L31" s="74"/>
     </row>
@@ -2080,16 +2112,16 @@
     <row r="37" spans="1:11">
       <c r="A37" s="108">
         <f>A20-F31</f>
-        <v>4175358</v>
+        <v>3619662</v>
       </c>
       <c r="B37" s="109"/>
       <c r="C37" s="78">
         <f>1-G31</f>
-        <v>0.24853321428571429</v>
+        <v>0.21545607142857137</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>31.066651785714285</v>
+        <v>26.93200892857142</v>
       </c>
       <c r="E37" s="88" t="s">
         <v>43</v>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>№Поз</t>
   </si>
@@ -172,7 +172,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -269,16 +269,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -692,7 +682,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -757,12 +747,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,9 +787,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -859,8 +840,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,9 +885,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -939,6 +917,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,12 +963,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1280,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1301,34 +1294,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="32"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.2" thickBot="1">
@@ -1339,360 +1332,364 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.6">
-      <c r="A5" s="44">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44">
         <v>24</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47">
+      <c r="F5" s="99"/>
+      <c r="G5" s="44">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="75"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:13" ht="15.6">
-      <c r="A6" s="48">
+      <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="76"/>
+      <c r="L6" s="73"/>
     </row>
     <row r="7" spans="1:13" ht="15.6">
-      <c r="A7" s="48">
+      <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="76"/>
+      <c r="L7" s="73"/>
     </row>
     <row r="8" spans="1:13" ht="15.6">
-      <c r="A8" s="48">
+      <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="50"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="76"/>
+      <c r="L8" s="73"/>
     </row>
     <row r="9" spans="1:13" ht="15.6">
-      <c r="A9" s="48">
+      <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="100"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="76"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:13" ht="15.6">
-      <c r="A10" s="48">
+      <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="76"/>
+      <c r="L10" s="73"/>
     </row>
     <row r="11" spans="1:13" ht="15.6">
-      <c r="A11" s="48">
+      <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="100">
+        <v>58</v>
+      </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="51"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="76"/>
+      <c r="L11" s="73"/>
       <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1">
-      <c r="A12" s="48">
+      <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="76"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A13" s="48">
+      <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="51"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="76"/>
+      <c r="L13" s="73"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="48">
+      <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="97" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="100">
+        <v>3</v>
+      </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="51"/>
+        <v>47</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="76"/>
+      <c r="L14" s="73"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="76"/>
+      <c r="L15" s="73"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1">
-      <c r="A16" s="48">
+      <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="54"/>
-      <c r="I16" s="83"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="76"/>
+      <c r="L16" s="73"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="68"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.2" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="66" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1714,92 +1711,92 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
     </row>
     <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="42" t="s">
+      <c r="H19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="77">
+      <c r="A20" s="74">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92">
+      <c r="B20" s="76"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86">
         <v>8066500</v>
       </c>
-      <c r="G20" s="38">
-        <f t="shared" ref="G20:G26" si="2">F20/A$20</f>
+      <c r="G20" s="36">
+        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
         <v>0.48014880952380951</v>
       </c>
-      <c r="H20" s="98">
+      <c r="H20" s="92">
         <f>A20-F20</f>
         <v>8733500</v>
       </c>
-      <c r="I20" s="82">
+      <c r="I20" s="79">
         <f>1-G20</f>
         <v>0.51985119047619044</v>
       </c>
-      <c r="J20" s="111"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="80">
+      <c r="A21" s="45"/>
+      <c r="B21" s="77">
         <v>43490</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="93">
+      <c r="D21" s="77"/>
+      <c r="E21" s="87">
         <v>963900</v>
       </c>
-      <c r="F21" s="93">
+      <c r="F21" s="87">
         <v>1032409</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="36">
         <f t="shared" si="2"/>
         <v>6.145291666666667E-2</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="88">
         <f>H20-F21</f>
         <v>7701091</v>
       </c>
@@ -1807,7 +1804,7 @@
         <f>I20-G21</f>
         <v>0.45839827380952375</v>
       </c>
-      <c r="J21" s="111"/>
+      <c r="J21" s="94"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1822,27 +1819,27 @@
       <c r="D22" s="10">
         <v>43499</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="88">
         <v>142884</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="88">
         <v>155948</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="36">
         <f t="shared" si="2"/>
         <v>9.2826190476190482E-3</v>
       </c>
-      <c r="H22" s="94">
-        <f>H21-F22</f>
+      <c r="H22" s="88">
+        <f t="shared" ref="H22:H27" si="3">H21-F22</f>
         <v>7545143</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" ref="I22:J23" si="3">I21-G22</f>
+        <f t="shared" ref="I22:I23" si="4">I21-G22</f>
         <v>0.44911565476190468</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -1855,26 +1852,26 @@
       <c r="D23" s="10">
         <v>43560</v>
       </c>
-      <c r="E23" s="95">
+      <c r="E23" s="89">
         <v>1263276</v>
       </c>
-      <c r="F23" s="95">
+      <c r="F23" s="89">
         <v>1404557</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="36">
         <f t="shared" si="2"/>
         <v>8.3604583333333329E-2</v>
       </c>
-      <c r="H23" s="94">
-        <f>H22-F23</f>
+      <c r="H23" s="88">
+        <f t="shared" si="3"/>
         <v>6140586</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.36551107142857137</v>
       </c>
-      <c r="J23" s="111"/>
-      <c r="K23" s="72"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="69"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12">
@@ -1888,26 +1885,26 @@
       <c r="D24" s="10">
         <v>43739</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="88">
         <v>1188432</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="88">
         <v>1243584</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="2"/>
         <v>7.402285714285714E-2</v>
       </c>
-      <c r="H24" s="94">
-        <f>H23-F24</f>
+      <c r="H24" s="88">
+        <f t="shared" si="3"/>
         <v>4897002</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" ref="I24:J24" si="4">I23-G24</f>
+        <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.29148821428571425</v>
       </c>
-      <c r="J24" s="111"/>
-      <c r="K24" s="73"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12">
@@ -1921,26 +1918,26 @@
       <c r="D25" s="10">
         <v>43752</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="88">
         <v>700812</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="88">
         <v>721644</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="2"/>
         <v>4.2955E-2</v>
       </c>
-      <c r="H25" s="94">
-        <f>H24-F25</f>
+      <c r="H25" s="88">
+        <f t="shared" si="3"/>
         <v>4175358</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" ref="I25:J25" si="5">I24-G25</f>
+        <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.24853321428571426</v>
       </c>
-      <c r="J25" s="111"/>
-      <c r="K25" s="72"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="69"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12">
@@ -1954,42 +1951,63 @@
       <c r="D26" s="10">
         <v>43864</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="88">
         <v>521640</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="88">
         <v>555696</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="2"/>
         <v>3.3077142857142861E-2</v>
       </c>
-      <c r="H26" s="94">
-        <f>H25-F26</f>
+      <c r="H26" s="88">
+        <f t="shared" si="3"/>
         <v>3619662</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" ref="I26:J26" si="6">I25-G26</f>
+        <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.2154560714285714</v>
       </c>
-      <c r="J26" s="111">
+      <c r="J26" s="94">
         <v>332</v>
       </c>
-      <c r="K26" s="72"/>
+      <c r="K26" s="69"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="72"/>
+      <c r="B27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10">
+        <v>43867</v>
+      </c>
+      <c r="D27" s="10">
+        <v>43872</v>
+      </c>
+      <c r="E27" s="88">
+        <v>1102248</v>
+      </c>
+      <c r="F27" s="88">
+        <v>1125179</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" si="2"/>
+        <v>6.6974940476190473E-2</v>
+      </c>
+      <c r="H27" s="88">
+        <f t="shared" si="3"/>
+        <v>2494483</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" ref="I27" si="8">I26-G27</f>
+        <v>0.14848113095238091</v>
+      </c>
+      <c r="J27" s="94">
+        <v>332</v>
+      </c>
+      <c r="K27" s="69"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12">
@@ -1997,13 +2015,13 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="94"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="88"/>
       <c r="G28" s="26"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="72"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="69"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12">
@@ -2011,26 +2029,26 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="94"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="88"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="72"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="13.8" thickBot="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="111"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="94"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
@@ -2041,29 +2059,29 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="56">
+      <c r="E31" s="53">
         <f>SUM(E20:E30)</f>
-        <v>4780944</v>
-      </c>
-      <c r="F31" s="55">
+        <v>5883192</v>
+      </c>
+      <c r="F31" s="52">
         <f>SUM(F20:F30)</f>
-        <v>13180338</v>
+        <v>14305517</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.78454392857142863</v>
+        <v>0.85151886904761909</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>3619662</v>
+        <v>2494483</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.21545607142857137</v>
-      </c>
-      <c r="J31" s="112"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
+        <v>0.14848113095238091</v>
+      </c>
+      <c r="J31" s="95"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1"/>
@@ -2078,12 +2096,12 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2092,10 +2110,10 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="110" t="s">
+      <c r="A36" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="11" t="s">
         <v>17</v>
       </c>
@@ -2110,27 +2128,27 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="108">
+      <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>3619662</v>
-      </c>
-      <c r="B37" s="109"/>
-      <c r="C37" s="78">
+        <v>2494483</v>
+      </c>
+      <c r="B37" s="110"/>
+      <c r="C37" s="75">
         <f>1-G31</f>
-        <v>0.21545607142857137</v>
+        <v>0.14848113095238091</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>26.93200892857142</v>
-      </c>
-      <c r="E37" s="88" t="s">
+        <v>18.560141369047614</v>
+      </c>
+      <c r="E37" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1"/>
@@ -2168,113 +2186,113 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="108"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="59"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="62"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="59"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="62"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="59"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="62"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="59"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="62"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="59"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="62"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="59"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="62"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="62"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="59"/>
     </row>
     <row r="51" spans="1:10" ht="15.6">
       <c r="A51" s="1"/>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="66"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -2282,40 +2300,40 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="106"/>
-      <c r="J52" s="107"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="108"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61"/>
+      <c r="A53" s="58"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="102"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="61"/>
+      <c r="A54" s="58"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="1"/>
@@ -2328,12 +2346,12 @@
       <c r="H55" s="1"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="B60" s="106"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="108"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC8177-020E-43A5-ADF9-92E9238647FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -172,7 +180,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -811,8 +819,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -938,6 +944,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1072,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1095,6 +1124,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1270,30 +1316,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="101" t="s">
         <v>41</v>
       </c>
@@ -1309,7 +1355,7 @@
       <c r="K1" s="101"/>
       <c r="L1" s="101"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
@@ -1324,7 +1370,7 @@
       <c r="L2" s="31"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1336,7 +1382,7 @@
       <c r="K3" s="31"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
@@ -1374,21 +1420,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44">
         <v>24</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="97"/>
       <c r="G5" s="44">
         <f>E5-F5</f>
         <v>24</v>
@@ -1397,24 +1443,24 @@
       <c r="I5" s="46"/>
       <c r="J5" s="43"/>
       <c r="K5" s="43"/>
-      <c r="L5" s="72"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6">
+      <c r="L5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="100"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
@@ -1423,24 +1469,24 @@
       <c r="I6" s="47"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6">
+      <c r="L6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="100"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1449,24 +1495,24 @@
       <c r="I7" s="47"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6">
+      <c r="L7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1475,24 +1521,24 @@
       <c r="I8" s="47"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="73"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6">
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1501,24 +1547,24 @@
       <c r="I9" s="48"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6">
+      <c r="L9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1527,24 +1573,24 @@
       <c r="I10" s="47"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="73"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6">
+      <c r="L10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="98">
         <v>58</v>
       </c>
       <c r="G11" s="9">
@@ -1555,25 +1601,25 @@
       <c r="I11" s="48"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="73"/>
+      <c r="L11" s="71"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="100"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1582,25 +1628,25 @@
       <c r="I12" s="48"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="73"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="28"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1611,24 +1657,24 @@
       <c r="I13" s="48"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="73"/>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="95" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="98">
         <v>3</v>
       </c>
       <c r="G14" s="9">
@@ -1639,24 +1685,24 @@
       <c r="I14" s="48"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="73"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1665,31 +1711,31 @@
       <c r="I15" s="48"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="73"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" customHeight="1">
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="81"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="100"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="51"/>
-      <c r="I16" s="80"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="73"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="65"/>
-      <c r="B17" s="64"/>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1699,9 +1745,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1711,11 +1757,11 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-    </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1">
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>22</v>
       </c>
@@ -1746,57 +1792,57 @@
       <c r="J19" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="74">
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="72">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86">
+      <c r="B20" s="74"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84">
         <v>8066500</v>
       </c>
       <c r="G20" s="36">
-        <f t="shared" ref="G20:G27" si="2">F20/A$20</f>
+        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
         <v>0.48014880952380951</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H20" s="90">
         <f>A20-F20</f>
         <v>8733500</v>
       </c>
-      <c r="I20" s="79">
+      <c r="I20" s="77">
         <f>1-G20</f>
         <v>0.51985119047619044</v>
       </c>
-      <c r="J20" s="94"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-    </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1">
+      <c r="J20" s="92"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
-      <c r="B21" s="77">
+      <c r="B21" s="75">
         <v>43490</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="87">
+      <c r="D21" s="75"/>
+      <c r="E21" s="85">
         <v>963900</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="85">
         <v>1032409</v>
       </c>
       <c r="G21" s="36">
         <f t="shared" si="2"/>
         <v>6.145291666666667E-2</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="86">
         <f>H20-F21</f>
         <v>7701091</v>
       </c>
@@ -1804,11 +1850,11 @@
         <f>I20-G21</f>
         <v>0.45839827380952375</v>
       </c>
-      <c r="J21" s="94"/>
+      <c r="J21" s="92"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="10">
         <v>43497</v>
@@ -1819,17 +1865,17 @@
       <c r="D22" s="10">
         <v>43499</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="86">
         <v>142884</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="86">
         <v>155948</v>
       </c>
       <c r="G22" s="36">
         <f t="shared" si="2"/>
         <v>9.2826190476190482E-3</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="86">
         <f t="shared" ref="H22:H27" si="3">H21-F22</f>
         <v>7545143</v>
       </c>
@@ -1837,11 +1883,11 @@
         <f t="shared" ref="I22:I23" si="4">I21-G22</f>
         <v>0.44911565476190468</v>
       </c>
-      <c r="J22" s="94"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="J22" s="92"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="10">
         <v>43549</v>
@@ -1852,17 +1898,17 @@
       <c r="D23" s="10">
         <v>43560</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="87">
         <v>1263276</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="87">
         <v>1404557</v>
       </c>
       <c r="G23" s="36">
         <f t="shared" si="2"/>
         <v>8.3604583333333329E-2</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="86">
         <f t="shared" si="3"/>
         <v>6140586</v>
       </c>
@@ -1870,11 +1916,11 @@
         <f t="shared" si="4"/>
         <v>0.36551107142857137</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="69"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="67"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="10">
         <v>43731</v>
@@ -1885,17 +1931,17 @@
       <c r="D24" s="10">
         <v>43739</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="86">
         <v>1188432</v>
       </c>
-      <c r="F24" s="88">
+      <c r="F24" s="86">
         <v>1243584</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="2"/>
         <v>7.402285714285714E-2</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="86">
         <f t="shared" si="3"/>
         <v>4897002</v>
       </c>
@@ -1903,11 +1949,11 @@
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.29148821428571425</v>
       </c>
-      <c r="J24" s="94"/>
-      <c r="K24" s="70"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="10" t="s">
         <v>42</v>
@@ -1918,17 +1964,17 @@
       <c r="D25" s="10">
         <v>43752</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="86">
         <v>700812</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="86">
         <v>721644</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="2"/>
         <v>4.2955E-2</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="86">
         <f t="shared" si="3"/>
         <v>4175358</v>
       </c>
@@ -1936,11 +1982,11 @@
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.24853321428571426</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="69"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="67"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
       <c r="B26" s="10">
         <v>43859</v>
@@ -1951,17 +1997,17 @@
       <c r="D26" s="10">
         <v>43864</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="86">
         <v>521640</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="86">
         <v>555696</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="2"/>
         <v>3.3077142857142861E-2</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="86">
         <f t="shared" si="3"/>
         <v>3619662</v>
       </c>
@@ -1969,13 +2015,13 @@
         <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.2154560714285714</v>
       </c>
-      <c r="J26" s="94">
+      <c r="J26" s="92">
         <v>332</v>
       </c>
-      <c r="K26" s="69"/>
+      <c r="K26" s="67"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="10" t="s">
         <v>42</v>
@@ -1986,17 +2032,17 @@
       <c r="D27" s="10">
         <v>43872</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="86">
         <v>1102248</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="86">
         <v>1125179</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="2"/>
         <v>6.6974940476190473E-2</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="86">
         <f t="shared" si="3"/>
         <v>2494483</v>
       </c>
@@ -2004,86 +2050,107 @@
         <f t="shared" ref="I27" si="8">I26-G27</f>
         <v>0.14848113095238091</v>
       </c>
-      <c r="J27" s="94">
+      <c r="J27" s="92">
         <v>332</v>
       </c>
-      <c r="K27" s="69"/>
+      <c r="K27" s="67"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="69"/>
+      <c r="B28" s="10">
+        <v>43972</v>
+      </c>
+      <c r="C28" s="10">
+        <v>43977</v>
+      </c>
+      <c r="D28" s="10">
+        <v>43980</v>
+      </c>
+      <c r="E28" s="87">
+        <v>1081836</v>
+      </c>
+      <c r="F28" s="86">
+        <v>1120712</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" si="2"/>
+        <v>6.6709047619047612E-2</v>
+      </c>
+      <c r="H28" s="86">
+        <f t="shared" ref="H28" si="9">H27-F28</f>
+        <v>1373771</v>
+      </c>
+      <c r="I28" s="27">
+        <f t="shared" ref="I28" si="10">I27-G28</f>
+        <v>8.1772083333333301E-2</v>
+      </c>
+      <c r="J28" s="92">
+        <v>331</v>
+      </c>
+      <c r="K28" s="67"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="88"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="86"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="69"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="67"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
       <c r="G30" s="23"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="94"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="92"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="53">
+      <c r="E31" s="99">
         <f>SUM(E20:E30)</f>
-        <v>5883192</v>
-      </c>
-      <c r="F31" s="52">
+        <v>6965028</v>
+      </c>
+      <c r="F31" s="100">
         <f>SUM(F20:F30)</f>
-        <v>14305517</v>
+        <v>15426229</v>
       </c>
       <c r="G31" s="24">
         <f>SUM(G20:G30)</f>
-        <v>0.85151886904761909</v>
+        <v>0.9182279166666667</v>
       </c>
       <c r="H31" s="20">
         <f>A20-F31</f>
-        <v>2494483</v>
+        <v>1373771</v>
       </c>
       <c r="I31" s="29">
         <f>1-G31</f>
-        <v>0.14848113095238091</v>
-      </c>
-      <c r="J31" s="95"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-    </row>
-    <row r="34" spans="1:11">
+        <v>8.1772083333333301E-2</v>
+      </c>
+      <c r="J31" s="93"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2095,7 +2162,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="102" t="s">
         <v>15</v>
       </c>
@@ -2109,7 +2176,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="111" t="s">
         <v>16</v>
       </c>
@@ -2127,30 +2194,30 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="109">
         <f>A20-F31</f>
-        <v>2494483</v>
+        <v>1373771</v>
       </c>
       <c r="B37" s="110"/>
-      <c r="C37" s="75">
+      <c r="C37" s="73">
         <f>1-G31</f>
-        <v>0.14848113095238091</v>
+        <v>8.1772083333333301E-2</v>
       </c>
       <c r="D37" s="21">
         <f>(C37/0.8)*100</f>
-        <v>18.560141369047614</v>
-      </c>
-      <c r="E37" s="82" t="s">
+        <v>10.221510416666662</v>
+      </c>
+      <c r="E37" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2158,7 +2225,7 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2173,7 +2240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2185,157 +2252,157 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="107"/>
       <c r="J41" s="108"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="59"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="58"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="57"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="59"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="59"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="57"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="59"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="59"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="59"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="57"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="57"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="59"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.6">
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="57"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="104"/>
       <c r="C51" s="104"/>
       <c r="D51" s="105"/>
-      <c r="E51" s="63"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="57"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
       <c r="I52" s="107"/>
       <c r="J52" s="108"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="58"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="59"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="57"/>
       <c r="I53" s="103"/>
       <c r="J53" s="103"/>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="58"/>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="103"/>
       <c r="J54" s="103"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2345,11 +2412,11 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="107"/>
       <c r="C60" s="108"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="107"/>
       <c r="C67" s="108"/>
     </row>
@@ -2383,12 +2450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2397,24 +2464,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-2-500-28 Калина 0,5 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC8177-020E-43A5-ADF9-92E9238647FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C3D82-DBAB-4262-8FBE-B8F6CDC93151}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -690,7 +690,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -733,9 +733,6 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,9 +889,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,20 +944,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -976,6 +956,23 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1317,10 +1314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1340,34 +1337,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,364 +1375,364 @@
       <c r="G3" s="6"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43">
         <v>24</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="44">
+      <c r="F5" s="95"/>
+      <c r="G5" s="43">
         <f>E5-F5</f>
         <v>24</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="70"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
         <v>24</v>
       </c>
-      <c r="F6" s="98"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
         <v>24</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="47"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="71"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>32</v>
       </c>
-      <c r="F7" s="98"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="47"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="46"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="71"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
         <v>32</v>
       </c>
-      <c r="F8" s="98"/>
+      <c r="F8" s="96"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="47"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="71"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>20</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="96"/>
       <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="71"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
+      <c r="A10" s="44">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>24</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="96"/>
       <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="9"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="71"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+      <c r="A11" s="44">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>60</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="96">
         <v>58</v>
       </c>
       <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
+      <c r="A12" s="44">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>21</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="96"/>
       <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="44">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="48"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="71"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+      <c r="A14" s="44">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="96">
         <v>3</v>
       </c>
       <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="71"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+      <c r="A15" s="44">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="12">
         <v>60</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="71"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="12"/>
-      <c r="F16" s="98"/>
+      <c r="F16" s="96"/>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="78"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="77"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="71"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1747,7 +1744,7 @@
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="63" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="13"/>
@@ -1757,100 +1754,100 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="72">
+      <c r="A20" s="71">
         <f>E5*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84">
+      <c r="B20" s="73"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82">
         <v>8066500</v>
       </c>
-      <c r="G20" s="36">
-        <f t="shared" ref="G20:G28" si="2">F20/A$20</f>
+      <c r="G20" s="35">
+        <f t="shared" ref="G20:G30" si="2">F20/A$20</f>
         <v>0.48014880952380951</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H20" s="88">
         <f>A20-F20</f>
         <v>8733500</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="76">
         <f>1-G20</f>
         <v>0.51985119047619044</v>
       </c>
-      <c r="J20" s="92"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
     </row>
     <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="75">
+      <c r="A21" s="44"/>
+      <c r="B21" s="74">
         <v>43490</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="85">
+      <c r="D21" s="74"/>
+      <c r="E21" s="83">
         <v>963900</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="83">
         <v>1032409</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <f t="shared" si="2"/>
         <v>6.145291666666667E-2</v>
       </c>
-      <c r="H21" s="86">
+      <c r="H21" s="84">
         <f>H20-F21</f>
         <v>7701091</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="26">
         <f>I20-G21</f>
         <v>0.45839827380952375</v>
       </c>
-      <c r="J21" s="92"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
@@ -1865,27 +1862,27 @@
       <c r="D22" s="10">
         <v>43499</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="84">
         <v>142884</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="84">
         <v>155948</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <f t="shared" si="2"/>
         <v>9.2826190476190482E-3</v>
       </c>
-      <c r="H22" s="86">
+      <c r="H22" s="84">
         <f t="shared" ref="H22:H27" si="3">H21-F22</f>
         <v>7545143</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="26">
         <f t="shared" ref="I22:I23" si="4">I21-G22</f>
         <v>0.44911565476190468</v>
       </c>
-      <c r="J22" s="92"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
@@ -1898,26 +1895,26 @@
       <c r="D23" s="10">
         <v>43560</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="85">
         <v>1263276</v>
       </c>
-      <c r="F23" s="87">
+      <c r="F23" s="85">
         <v>1404557</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <f t="shared" si="2"/>
         <v>8.3604583333333329E-2</v>
       </c>
-      <c r="H23" s="86">
+      <c r="H23" s="84">
         <f t="shared" si="3"/>
         <v>6140586</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="26">
         <f t="shared" si="4"/>
         <v>0.36551107142857137</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="67"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="66"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1931,26 +1928,26 @@
       <c r="D24" s="10">
         <v>43739</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="84">
         <v>1188432</v>
       </c>
-      <c r="F24" s="86">
+      <c r="F24" s="84">
         <v>1243584</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <f t="shared" si="2"/>
         <v>7.402285714285714E-2</v>
       </c>
-      <c r="H24" s="86">
+      <c r="H24" s="84">
         <f t="shared" si="3"/>
         <v>4897002</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="26">
         <f t="shared" ref="I24" si="5">I23-G24</f>
         <v>0.29148821428571425</v>
       </c>
-      <c r="J24" s="92"/>
-      <c r="K24" s="68"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="67"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1964,26 +1961,26 @@
       <c r="D25" s="10">
         <v>43752</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="84">
         <v>700812</v>
       </c>
-      <c r="F25" s="86">
+      <c r="F25" s="84">
         <v>721644</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <f t="shared" si="2"/>
         <v>4.2955E-2</v>
       </c>
-      <c r="H25" s="86">
+      <c r="H25" s="84">
         <f t="shared" si="3"/>
         <v>4175358</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I25" s="26">
         <f t="shared" ref="I25" si="6">I24-G25</f>
         <v>0.24853321428571426</v>
       </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="67"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1997,28 +1994,28 @@
       <c r="D26" s="10">
         <v>43864</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="84">
         <v>521640</v>
       </c>
-      <c r="F26" s="86">
+      <c r="F26" s="84">
         <v>555696</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <f t="shared" si="2"/>
         <v>3.3077142857142861E-2</v>
       </c>
-      <c r="H26" s="86">
+      <c r="H26" s="84">
         <f t="shared" si="3"/>
         <v>3619662</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="26">
         <f t="shared" ref="I26" si="7">I25-G26</f>
         <v>0.2154560714285714</v>
       </c>
-      <c r="J26" s="92">
+      <c r="J26" s="90">
         <v>332</v>
       </c>
-      <c r="K26" s="67"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2032,28 +2029,28 @@
       <c r="D27" s="10">
         <v>43872</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="84">
         <v>1102248</v>
       </c>
-      <c r="F27" s="86">
+      <c r="F27" s="84">
         <v>1125179</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f t="shared" si="2"/>
         <v>6.6974940476190473E-2</v>
       </c>
-      <c r="H27" s="86">
+      <c r="H27" s="84">
         <f t="shared" si="3"/>
         <v>2494483</v>
       </c>
-      <c r="I27" s="27">
+      <c r="I27" s="26">
         <f t="shared" ref="I27" si="8">I26-G27</f>
         <v>0.14848113095238091</v>
       </c>
-      <c r="J27" s="92">
+      <c r="J27" s="90">
         <v>332</v>
       </c>
-      <c r="K27" s="67"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2067,126 +2064,164 @@
       <c r="D28" s="10">
         <v>43980</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="85">
         <v>1081836</v>
       </c>
-      <c r="F28" s="86">
+      <c r="F28" s="84">
         <v>1120712</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="25">
         <f t="shared" si="2"/>
         <v>6.6709047619047612E-2</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="84">
         <f t="shared" ref="H28" si="9">H27-F28</f>
         <v>1373771</v>
       </c>
-      <c r="I28" s="27">
-        <f t="shared" ref="I28" si="10">I27-G28</f>
+      <c r="I28" s="26">
+        <f t="shared" ref="I28:I29" si="10">I27-G28</f>
         <v>8.1772083333333301E-2</v>
       </c>
-      <c r="J28" s="92">
+      <c r="J28" s="90">
         <v>331</v>
       </c>
-      <c r="K28" s="67"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="67"/>
+      <c r="B29" s="10">
+        <v>44113</v>
+      </c>
+      <c r="C29" s="10">
+        <v>44117</v>
+      </c>
+      <c r="D29" s="10">
+        <v>44137</v>
+      </c>
+      <c r="E29" s="85">
+        <v>889056</v>
+      </c>
+      <c r="F29" s="84">
+        <v>928826</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="2"/>
+        <v>5.5287261904761902E-2</v>
+      </c>
+      <c r="H29" s="84">
+        <f t="shared" ref="H29" si="11">H28-F29</f>
+        <v>444945</v>
+      </c>
+      <c r="I29" s="26">
+        <f t="shared" si="10"/>
+        <v>2.6484821428571399E-2</v>
+      </c>
+      <c r="J29" s="90">
+        <v>332</v>
+      </c>
+      <c r="K29" s="66"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="1"/>
+      <c r="B30" s="16">
+        <v>44235</v>
+      </c>
+      <c r="C30" s="16">
+        <v>44241</v>
+      </c>
+      <c r="D30" s="16">
+        <v>44256</v>
+      </c>
+      <c r="E30" s="86">
+        <v>1267812</v>
+      </c>
+      <c r="F30" s="87">
+        <v>1310412</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="2"/>
+        <v>7.8000714285714284E-2</v>
+      </c>
+      <c r="H30" s="84">
+        <f t="shared" ref="H30" si="12">H29-F30</f>
+        <v>-865467</v>
+      </c>
+      <c r="I30" s="26">
+        <f t="shared" ref="I30" si="13">I29-G30</f>
+        <v>-5.1515892857142885E-2</v>
+      </c>
+      <c r="J30" s="90">
+        <v>332</v>
+      </c>
+      <c r="K30" s="66"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="99">
-        <f>SUM(E20:E30)</f>
-        <v>6965028</v>
-      </c>
-      <c r="F31" s="100">
-        <f>SUM(F20:F30)</f>
-        <v>15426229</v>
-      </c>
-      <c r="G31" s="24">
-        <f>SUM(G20:G30)</f>
-        <v>0.9182279166666667</v>
-      </c>
-      <c r="H31" s="20">
-        <f>A20-F31</f>
-        <v>1373771</v>
-      </c>
-      <c r="I31" s="29">
-        <f>1-G31</f>
-        <v>8.1772083333333301E-2</v>
-      </c>
-      <c r="J31" s="93"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="111"/>
-      <c r="C36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="97">
+        <f>SUM(E20:E32)</f>
+        <v>9121896</v>
+      </c>
+      <c r="F33" s="98">
+        <f>SUM(F20:F32)</f>
+        <v>17665467</v>
+      </c>
+      <c r="G33" s="23">
+        <f>SUM(G20:G32)</f>
+        <v>1.0515158928571429</v>
+      </c>
+      <c r="H33" s="20">
+        <f>A20-F33</f>
+        <v>-865467</v>
+      </c>
+      <c r="I33" s="28">
+        <f>1-G33</f>
+        <v>-5.1515892857142864E-2</v>
+      </c>
+      <c r="J33" s="91"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2194,249 +2229,281 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="109">
-        <f>A20-F31</f>
-        <v>1373771</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="73">
-        <f>1-G31</f>
-        <v>8.1772083333333301E-2</v>
-      </c>
-      <c r="D37" s="21">
-        <f>(C37/0.8)*100</f>
-        <v>10.221510416666662</v>
-      </c>
-      <c r="E37" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+    <row r="37" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="103"/>
+      <c r="C38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="101">
+        <f>A20-F33</f>
+        <v>-865467</v>
+      </c>
+      <c r="B39" s="102"/>
+      <c r="C39" s="72">
+        <f>1-G33</f>
+        <v>-5.1515892857142864E-2</v>
+      </c>
+      <c r="D39" s="21">
+        <f>(C39/0.8)*100</f>
+        <v>-6.4394866071428583</v>
+      </c>
+      <c r="E39" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="108"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="57"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="57"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="57"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="57"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="56"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="55"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="57"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="57"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="55"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="56"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="55"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="56"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="58"/>
-      <c r="H49" s="57"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="57"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="56"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="55"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="56"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="56"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="100"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
+      <c r="A55" s="55"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="107"/>
-      <c r="C60" s="108"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="107"/>
-      <c r="C67" s="108"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="55"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="99"/>
+      <c r="C62" s="100"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="99"/>
+      <c r="C69" s="100"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2444,7 +2511,7 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="12" man="1"/>
+    <brk id="39" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
